--- a/部门管理/2017考核/人员考核-初稿.xlsx
+++ b/部门管理/2017考核/人员考核-初稿.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="4820" windowWidth="27000" windowHeight="16160"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="27000" windowHeight="16160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,6 +606,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -911,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -972,6 +975,7 @@
       </c>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22"/>
@@ -1015,6 +1019,7 @@
       <c r="P2" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
@@ -1062,6 +1067,7 @@
         <v>32</v>
       </c>
       <c r="P3" s="13"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
@@ -1111,6 +1117,7 @@
         <v>38</v>
       </c>
       <c r="P4" s="13"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
@@ -1162,6 +1169,7 @@
       <c r="P5" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
@@ -1209,6 +1217,7 @@
         <v>56</v>
       </c>
       <c r="P6" s="13"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
@@ -1260,6 +1269,7 @@
       <c r="P7" s="13" t="s">
         <v>50</v>
       </c>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
@@ -1309,6 +1319,7 @@
       <c r="P8" s="13" t="s">
         <v>51</v>
       </c>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
@@ -1358,6 +1369,7 @@
       <c r="P9" s="13" t="s">
         <v>48</v>
       </c>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
@@ -1407,7 +1419,7 @@
         <v>8000</v>
       </c>
       <c r="P10" s="13"/>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1461,6 +1473,7 @@
       <c r="P11" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="Q11" s="24"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
@@ -1508,6 +1521,7 @@
         <v>52</v>
       </c>
       <c r="P12" s="13"/>
+      <c r="Q12" s="24"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
@@ -1555,6 +1569,7 @@
         <v>6500</v>
       </c>
       <c r="P13" s="13"/>
+      <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
@@ -1602,6 +1617,7 @@
         <v>43</v>
       </c>
       <c r="P14" s="13"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
@@ -1651,6 +1667,7 @@
       <c r="P15" s="13" t="s">
         <v>50</v>
       </c>
+      <c r="Q15" s="24"/>
     </row>
     <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
@@ -1700,11 +1717,11 @@
       <c r="P16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -1750,8 +1767,9 @@
         <v>32</v>
       </c>
       <c r="P17" s="14"/>
+      <c r="Q17" s="24"/>
     </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -1797,8 +1815,9 @@
         <v>36</v>
       </c>
       <c r="P18" s="14"/>
+      <c r="Q18" s="24"/>
     </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -1844,8 +1863,9 @@
         <v>32</v>
       </c>
       <c r="P19" s="14"/>
+      <c r="Q19" s="24"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
       <c r="B20" s="19" t="s">
         <v>26</v>
@@ -1888,6 +1908,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="20"/>
       <c r="P20" s="13"/>
+      <c r="Q20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
